--- a/sample_en.xlsx
+++ b/sample_en.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Cost structure</t>
+          <t>Cost Structure</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">

--- a/sample_en.xlsx
+++ b/sample_en.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,17 +424,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="78" customWidth="1" min="1" max="1"/>
+    <col width="107" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="163" customWidth="1" min="3" max="3"/>
-    <col width="207" customWidth="1" min="4" max="4"/>
-    <col width="87" customWidth="1" min="5" max="5"/>
-    <col width="158" customWidth="1" min="6" max="6"/>
-    <col width="121" customWidth="1" min="7" max="7"/>
-    <col width="105" customWidth="1" min="8" max="8"/>
-    <col width="136" customWidth="1" min="9" max="9"/>
-    <col width="103" customWidth="1" min="10" max="10"/>
-    <col width="95" customWidth="1" min="11" max="11"/>
+    <col width="204" customWidth="1" min="4" max="4"/>
+    <col width="116" customWidth="1" min="5" max="5"/>
+    <col width="155" customWidth="1" min="6" max="6"/>
+    <col width="138" customWidth="1" min="7" max="7"/>
+    <col width="108" customWidth="1" min="8" max="8"/>
+    <col width="134" customWidth="1" min="9" max="9"/>
+    <col width="101" customWidth="1" min="10" max="10"/>
+    <col width="107" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -513,47 +513,47 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>High quality search engine using PageRank algorithm
-Improve user's search experience
-Organize and search web pages efficiently</t>
+Improved user search experience
+Organize and search web pages more efficiently</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Number of search queries
 Number of active users
-User feedback</t>
+User Feedback</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Quickly find the most relevant information
-A powerful tool for efficiently exploring the web</t>
+Powerful tools to explore the Web efficiently</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Advanced search algorithm (PageRank)
+          <t>Advanced Search Algorithm (PageRank)
 Superior search results compared to other search engines</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>website
-Word of Mouse
-media exposure</t>
+          <t>Website
+Word of Mouth
+Media Exposure</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>All Internet users
-People who need information in business</t>
+          <t>Internet users overall
+People who need information for their business</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Server and infrastructure maintenance
-Algorithm and software development
-Marketing and brand building</t>
+          <t>Maintain servers and infrastructure
+Algorithm and Software Development
+Marketing and Brand Building</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -573,62 +573,62 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Taxis are inconvenient and time consuming
-Taxis are expensive
-It is difficult to reserve a car for hire</t>
+          <t>Cab access is inconvenient and time consuming
+Cab fares are high.
+Difficult to book a hired car</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A service that allows you to call a car in real time through a smartphone app
-Flat rate and clear pricing
-Provide premium hire service</t>
+          <t>A service that allows users to call for a car in real time through a smartphone app
+Fixed price system with clear rates.
+Providing premium hire services</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Number of app downloads
-Number of rides
-User feedback</t>
+Number of Rides
+User Feedback</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ride anywhere with a tap
-Know the price in advance
-Transportation by comfortable car</t>
+          <t>Just tap to board anywhere
+Know the fees in advance.
+Comfortable car ride</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>No other similar service exists
-New vehicle call experience using technology</t>
+New Vehicle Calling Experience Using Technology</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Smartphone app
-Word of Mouse
-media exposure</t>
+          <t>Smart Phone Apps
+Word of Mouth
+Media Exposure</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Wealthy people looking for hire services
-Businessmen who frequently use taxis</t>
+          <t>Affluent people seeking hire services
+Businessmen who frequently use cabs</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>App development and maintenance
-Marketing and brand building
-Customer support</t>
+          <t>Application development and maintenance
+Marketing and Brand Building
+Customer Support</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>fare
-Providing premium services</t>
+          <t>one's fare for a train or bus
+Premium Service Offerings</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expensive and poorly performing traditional disk-based storage
+          <t>Expensive, low performance traditional disk-based storage
 Storage management is complex and time consuming</t>
         </is>
       </c>
@@ -657,7 +657,7 @@
         <is>
           <t>Number of products sold
 Number of new customers
-Customer Satisfaction</t>
+customer satisfaction</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -668,32 +668,32 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>Pioneer specializing in flash storage
-Advanced data reduction technology</t>
+Advanced data reduction techniques</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Direct sales
-Partner companies</t>
+          <t>Direct Sale
+Partners</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>Data-driven enterprise
-Businesses that require high performance storage</t>
+Businesses requiring high-performance storage</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Product development and maintenance
-Marketing and sales
-Customer support</t>
+          <t>Product Development and Maintenance
+Marketing and Sales
+Customer Support</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>hardware sales
-Fees for support and services</t>
+          <t>Hardware sales
+Support and Service Fees</t>
         </is>
       </c>
     </row>
@@ -708,59 +708,59 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The need to cope with the increase in data volume
-Complexity of data management in multi-cloud environments</t>
+          <t>Need to cope with increasing data volume
+Complexity of managing data in a multi-cloud environment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Scalable all-flash storage solution
-Cloud-ready data service and integrated management platform</t>
+Cloud-enabled data services and integrated management platform</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Number of products sold
 Number of new customers
-Number of cloud service subscriptions</t>
+Number of subscriptions to cloud services</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fast, simple, scalable cloud-ready storage solution</t>
+          <t>Fast, simple, scalable cloud-enabled storage solutions</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>Pioneer of all-flash storage
-Powerful data platform for multi-cloud</t>
+Powerful data platform with multi-cloud support</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Direct sales
-Partner companies
-Cloud Marketplace</t>
+          <t>Direct Sale
+Partners
+cloud marketplace</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Data-driven enterprise
-Business with multi-cloud</t>
+Businesses using multi-cloud</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Product development and maintenance
-Marketing and sales
-Customer support</t>
+          <t>Product Development and Maintenance
+Marketing and Sales
+Customer Support</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>hardware sales
-Cloud service subscription
-Fees for support and services</t>
+          <t>Hardware sales
+Subscription to cloud services
+Support and Service Fees</t>
         </is>
       </c>
     </row>
@@ -775,23 +775,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IT infrastructure management is complex and time consuming
+          <t>Managing IT infrastructure is complex and time consuming
 Difficult to expand or upgrade data centers
-CAPEX burden</t>
+Burden of CAPEX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A platform of IT solutions provided all at once
+          <t>A platform of IT solutions offered in a single package
 Cloud-like consumption model (OPEX-based)
-Can be scaled up or down according to the scope of application</t>
+Scale up and down according to the scope of application</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>number of users
-total contract value
-service uptime</t>
+          <t>Number of users
+total contract amount
+Uptime for service</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -801,33 +801,33 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dell EMC existing products and customer base
-Integrated management of hardware and software</t>
+          <t>Dell EMC's existing product and customer base
+Integrated hardware and software management</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dell EMC existing business channels
-website</t>
+          <t>Dell EMC's existing business channels
+Website</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Small and medium-sized enterprises
-Enterprise organization</t>
+          <t>smaller companies
+Enterprise Organization</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Platform development and maintenance
 Hardware and software costs
-Marketing and promotion</t>
+Marketing and Promotion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Subscription fee
-Fees for service and support</t>
+          <t>Subscription Fees
+Service and Support Fees</t>
         </is>
       </c>
     </row>
@@ -843,67 +843,67 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>Traditional hosting services are difficult to set up and manage
-On-premises infrastructure is difficult to scale
-No way to quickly deploy your own application</t>
+On-premise infrastructure is difficult to scale
+No way to deploy own applications quickly</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Serve as a cloud-based platform
-Enables auto-scaling and IaC (Infrastructure as Code)
+          <t>Serving as a cloud-based platform
+Automatic scaling and Infrastructure as Code (IaC)
 Enables easy application deployment and management</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>number of users
+          <t>Number of users
 Number of deployments
-average uptime</t>
+Average uptime</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A cloud service that makes everything from deployment to scaling easy</t>
+          <t>Cloud services from deployment to scaling with ease</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Red Hat's strong brand and existing customer base
-Extensive community support due to the characteristics of open source</t>
+          <t>Strong Red Hat brand and existing customer base
+Extensive community support due to its open source nature</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>website
+          <t>Website
 Red Hat's existing business channels
-Open source community</t>
+open source community</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Developer
-Small and medium-sized enterprises
-Enterprise organization</t>
+          <t>developer
+smaller companies
+Enterprise Organization</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Platform development and maintenance
 Maintain cloud infrastructure
-Marketing and promotion</t>
+Marketing and Promotion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Subscription fee
-Support and consulting</t>
+          <t>Subscription Fees
+Support and Consulting</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Devise and commercialize Kubernetes assuming that Kubernetes does not exist</t>
+          <t>Kubernetes was invented and made into a business under the assumption that Kubernetes did not exist.</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
@@ -912,44 +912,44 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>Difficult to manage microservices
-Ensuring system scalability and reliability
-Complex state management of infrastructure
+Ensure system scalability and reliability
+Complex infrastructure state management
 Automated deployment and rolling updates</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Provide orchestration tools like Kubernetes
-Load balancing and service discovery
-Manage state with infrastructure as code (IaC)
-Automatic repair by reconciliation mechanism
-Automated rollouts and rollbacks</t>
+Load Balancing and Service Discovery
+Infrastructure-as-Code (IaC) to manage status
+Automatic repair by reconsiliation mechanism
+Automated rollout and rollback</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Number of active users
-number of applications deployed
-Earnings</t>
+Number of deployed applications
+earnings</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Provides efficient microservice management
-Simplify management by codifying infrastructure
-Automatic repair and reliability assurance through reconciliation</t>
+Simplify management by coding infrastructure
+Automatic repair and reliability assurance through reconsiliation</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>An early advantage for an era without Kubernetes
-Deep cloud native technology knowledge and experience</t>
+          <t>Initial Advantage for a time when Kubernetes does not exist
+Deep cloud-native technology knowledge and experience</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>website
-Cloud Marketplace
+          <t>Website
+cloud marketplace
 Partnerships (cloud providers, development tools, etc.)</t>
         </is>
       </c>
@@ -957,27 +957,27 @@
         <is>
           <t>Companies using microservices
 Developers looking for scalability and reliability
-Enterprises requiring advanced application deployment</t>
+Companies requiring advanced application deployment</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Development and maintenance
-Customer support
-Marketing and promotion</t>
+          <t>Development and Maintenance
+Customer Support
+Marketing and Promotion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Software license fee according to system scale
-Fees for consulting and customization services</t>
+          <t>Software license fee based on system size
+Consulting and Customization Service Fees</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Devise and commercialize SRE assuming that the concept of SRE does not exist</t>
+          <t>SRE was conceived and made into a business based on the assumption that the concept of SRE did not exist.</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -985,61 +985,598 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>High system downtime and unreliability
+          <t>Lack of reliability due to frequent system downtime
 Gap between development and operations teams
 Slow release of new features</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>New engineering role to integrate operations and development
+          <t>New engineering roles to integrate operations and development
 System operation applying software engineering principles
-Increased release speed through automation and IaC (Infrastructure as Code)</t>
+Increased release speed through automation and Infrastructure as Code (IaC)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>User system downtime
-New feature release speed
-system reliability</t>
+Release speed of new features
+System Reliability</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Highly reliable system operation applying software engineering methods</t>
+          <t>Reliable system operation by applying software engineering methods</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pioneer of new investment methods
-Ability to improve both system reliability and speed of new feature release</t>
+          <t>Pioneer of new operational methods
+Ability to increase both system reliability and the speed at which new features are released</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Internet (websites, blogs, social media)
-seminars, conferences
-Partnerships (IT consulting firms, etc.)</t>
+Seminars and Conferences
+Partnerships (e.g., IT consulting firms)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Companies suffering from system downtime
-Companies that feel they are slow to release new features</t>
+Companies that feel that the release of new features is slow</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>engineer salary
-marketing and sales costs
+          <t>Engineer Salary
+Marketing and sales costs
 R&amp;D</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Service contract fee
+          <t>service contract fee
 Software license fee
-Consulting fee</t>
+Consulting Fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nCino</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>41102</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Inefficient and slow procedures due to legacy systems in the banking industry
+Poor customer experience and low satisfaction
+Difficulties in regulatory compliance</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cloud-based centralized bank operating system
+Digitization to improve customer service
+Dashboard for real-time monitoring and reporting</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Number of new banks registered on the platform
+Transaction volume by bank
+(degree of) customer satisfaction</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A centralized system that digitizes and streamlines the bank's business processes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cloud-based platform developed from the beginning, unlike existing bank legacy systems
+Services embedded within the Salesforce ecosystem</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Internet (websites, blogs, social media)
+Direct partnerships with banks</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Banks considering migration from legacy systems
+Banks seeking to improve customer experience</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Engineer Salary
+Cloud infrastructure maintenance costs
+Marketing and sales costs</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Software subscription fees
+Support and Customization Service Fees</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NANOX</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>High cost of X-ray equipment
+Limited medical diagnosis in inaccessible areas
+Waiting time for diagnostic results</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Low-cost, compact X-ray equipment (Nanox.ARC)
+Cloud-based diagnostic network (Nanox.Cloud)
+Immediate diagnostic support using AI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Number of Nanox.ARC shipments
+Number of connections to Nanox.Cloud
+Diagnostic processing volume by AI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Provide low-cost, accessible x-ray diagnostic technology</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Development of innovative low-cost X-ray systems
+Integrated solution combining cloud-based diagnostic platform</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Direct sales to medical institutions
+Medical events and conferences
+Online (website, social media)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Medical institutions in developing countries
+Local clinics and small hospitals
+Large medical institutions and hospitals</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>R&amp;D Expenses
+production cost
+Marketing and sales costs</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Nanox.ARC for sale
+Nanox.Cloud service fees
+Fees for AI Diagnostic Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Snowflake</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>41091</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Scaling issues with existing data warehouses
+Data consistency and security issues
+Slow data processing speed</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cloud-native data warehousing
+Scalable storage and computing resources on demand
+Centralized data management and fast query processing</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Number of active users
+Amount of storage and computing resources used
+Number of queries to the data warehouse</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Provide a fast and scalable data warehouse in the cloud</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cloud-native design for both data warehouse scaling and query performance
+On-demand scaling and fee structure</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Website
+cloud marketplace
+Direct Sales and Partnerships</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>enterprise
+Tech Startups
+Various industries requiring data analysis</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Platform development and maintenance
+Cost of using cloud services
+Marketing and sales costs</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Billing based on usage volume
+Rate plans for long-term use
+Cost of data migration and consulting services</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3.AI</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Difficult to utilize AI and big data
+Difficult to integrate with existing enterprise systems
+Lack of scalable AI solutions</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Integrated platform for AI and Big Data
+Easy integration with enterprise systems
+Highly scalable AI applications</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Number of AI applications running on the platform
+data processing volume
+Customer satisfaction and repeat business</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>AI-enabled business transformation platform</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Provide consistent AI solutions
+High level of integration capability with existing systems</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Website
+direct sales
+partnership</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>enterprise
+Enterprise Software Developer</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Platform development and maintenance
+Sales and marketing costs
+Customer support and training costs</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Platform usage fees
+Consulting fees for providing solutions
+Customization and development support costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Unity</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>38201</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Advanced game development skills and resource requirements
+Difficult to port to multiple platforms</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Providing an integrated development environment that simplifies game development
+One-click, multi-platform support</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Number of users
+Number of games developed
+Use of time</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Game Development Made Easy for Everyone</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>User-friendly interface for beginners and professionals alike
+Extensive platform support</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Website
+Partnerships with Educational Institutions</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>game developer
+educational institution</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Development and maintenance costs
+marketing cost</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Professional version licenses for sale
+Subscription fees for services
+Revenue from Unity Asset Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>38961</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Lack of a platform to give shape to one's ideas
+Lack of safe online gaming environment for children</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Platform for users to create and share their own games
+Safe environment with strong norms and moderation system</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Number of registered users
+Number of games created
+Average utilization time</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Experience creating your own games and sharing them with others</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Unique user-generated content and social bodies
+High brand recognition and safety for children</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Website
+Mobile Apps</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Children and Youth
+People who want to learn game development</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Platform development and maintenance
+Moderation and norm reinforcement
+marketing cost</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sale of virtual currency "Robux
+Subscription Fees
+Advertising Revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>37803</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Highly oil-dependent vehicle industry
+Negative environmental impact</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Manufacture of high-performance, environmentally friendly electric vehicles
+Battery Technology Innovation</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Number of units sold
+Brand recognition
+earnings</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fast and sustainable energy solutions</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Brand awareness and innovation
+Advanced Battery Technology</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Direct Distributors
+Online Sales</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Environmentally Conscious Consumers
+Premium segment car buyers</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Manufacturing cost
+R &amp; D
+Operating and administrative expenses</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Vehicle Sales
+Services and Accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SpaceX</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>37329</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>High-cost space exploration
+Non-reusable rocket</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Development of reusable rockets
+Realization of low-cost space travel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Number of launches
+Number of successful reusable rockets
+Number of contracts</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Allow humans to explore the universe and live on other planets</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Reusable Rocket Technology
+Strong brand and innovation</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Government Contracts
+Commercial Launch Agreement</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>government body (agency)
+satellite company</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Rocket Development and Manufacturing
+Launch costs
+R &amp; D</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>launch contract
+Income from space travel</t>
         </is>
       </c>
     </row>

--- a/sample_en.xlsx
+++ b/sample_en.xlsx
@@ -424,17 +424,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="107" customWidth="1" min="1" max="1"/>
+    <col width="106" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="163" customWidth="1" min="3" max="3"/>
-    <col width="204" customWidth="1" min="4" max="4"/>
+    <col width="207" customWidth="1" min="4" max="4"/>
     <col width="116" customWidth="1" min="5" max="5"/>
-    <col width="155" customWidth="1" min="6" max="6"/>
-    <col width="138" customWidth="1" min="7" max="7"/>
+    <col width="150" customWidth="1" min="6" max="6"/>
+    <col width="141" customWidth="1" min="7" max="7"/>
     <col width="108" customWidth="1" min="8" max="8"/>
-    <col width="134" customWidth="1" min="9" max="9"/>
-    <col width="101" customWidth="1" min="10" max="10"/>
-    <col width="107" customWidth="1" min="11" max="11"/>
+    <col width="136" customWidth="1" min="9" max="9"/>
+    <col width="104" customWidth="1" min="10" max="10"/>
+    <col width="103" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,7 +505,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Searching web pages is incomplete and inconvenient
+          <t>Incomplete and inconvenient search of web pages
 Inconsistent quality of search results
 Low relevance of search results</t>
         </is>
@@ -514,46 +514,46 @@
         <is>
           <t>High quality search engine using PageRank algorithm
 Improved user search experience
-Organize and search web pages more efficiently</t>
+Organize web pages and improve search efficiency</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Number of search queries
 Number of active users
-User Feedback</t>
+User feedback</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Quickly find the most relevant information
-Powerful tools to explore the Web efficiently</t>
+          <t>Find the most relevant information quickly
+Powerful tools for efficient web exploration</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Advanced Search Algorithm (PageRank)
+          <t>Advanced search algorithm (PageRank)
 Superior search results compared to other search engines</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Website
+          <t>Websites
 Word of Mouth
-Media Exposure</t>
+Media exposure</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Internet users overall
-People who need information for their business</t>
+          <t>Overall Internet users
+People who need information for their businesses</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Maintain servers and infrastructure
-Algorithm and Software Development
-Marketing and Brand Building</t>
+          <t>Maintaining servers and infrastructure
+Algorithm and software development
+Marketing and brand building</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -573,62 +573,62 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cab access is inconvenient and time consuming
-Cab fares are high.
-Difficult to book a hired car</t>
+          <t>Cab service is inconvenient and time consuming
+Cab fares are expensive
+Difficult to reserve a hired car</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A service that allows users to call for a car in real time through a smartphone app
-Fixed price system with clear rates.
-Providing premium hire services</t>
+          <t>Real-time car hailing service through a smartphone app
+Offers a fixed and clear fare
+Provides premium hire car service</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Number of app downloads
-Number of Rides
-User Feedback</t>
+Number of rides
+User feedback</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Just tap to board anywhere
-Know the fees in advance.
+          <t>Ride anywhere with just a tap
+Know the fare in advance
 Comfortable car ride</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>No other similar service exists
-New Vehicle Calling Experience Using Technology</t>
+New vehicle call experience using technology</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Smart Phone Apps
+          <t>Smartphone Apps
 Word of Mouth
-Media Exposure</t>
+Media exposure</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Affluent people seeking hire services
-Businessmen who frequently use cabs</t>
+          <t>High-net-worth individuals seeking for-hire services
+Business people who frequently use cabs</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Application development and maintenance
-Marketing and Brand Building
-Customer Support</t>
+          <t>App development and maintenance
+Marketing and brand building
+Customer support</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>one's fare for a train or bus
-Premium Service Offerings</t>
+          <t>Ride fees
+Premium service offerings</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expensive, low performance traditional disk-based storage
+          <t>Traditional disk-based storage with high cost and low performance
 Storage management is complex and time consuming</t>
         </is>
       </c>
@@ -657,7 +657,7 @@
         <is>
           <t>Number of products sold
 Number of new customers
-customer satisfaction</t>
+Customer Satisfaction</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -668,19 +668,19 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>Pioneer specializing in flash storage
-Advanced data reduction techniques</t>
+Advanced data reduction technology</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Direct Sale
+          <t>Direct Sales
 Partners</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Data-driven enterprise
-Businesses requiring high-performance storage</t>
+          <t>Data-centric enterprise
+Businesses requiring high performance storage</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -693,7 +693,7 @@
       <c r="K4" t="inlineStr">
         <is>
           <t>Hardware sales
-Support and Service Fees</t>
+Support and service fees</t>
         </is>
       </c>
     </row>
@@ -708,13 +708,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Need to cope with increasing data volume
+          <t>Need to keep pace with increasing data volumes
 Complexity of managing data in a multi-cloud environment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Scalable all-flash storage solution
+          <t>Scalable all-flash storage solutions
 Cloud-enabled data services and integrated management platform</t>
         </is>
       </c>
@@ -727,25 +727,25 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fast, simple, scalable cloud-enabled storage solutions</t>
+          <t>Fast, simple, scalable cloud-ready storage solutions</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pioneer of all-flash storage
+          <t>Pioneer in all-flash storage
 Powerful data platform with multi-cloud support</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Direct Sale
+          <t>Direct Sales
 Partners
-cloud marketplace</t>
+Cloud Marketplace</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Data-driven enterprise
+          <t>Data-centric enterprise
 Businesses using multi-cloud</t>
         </is>
       </c>
@@ -759,8 +759,8 @@
       <c r="K5" t="inlineStr">
         <is>
           <t>Hardware sales
-Subscription to cloud services
-Support and Service Fees</t>
+Cloud service subscriptions
+Support and service fees</t>
         </is>
       </c>
     </row>
@@ -775,59 +775,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Managing IT infrastructure is complex and time consuming
+          <t>IT infrastructure management is complex and time consuming
 Difficult to expand or upgrade data centers
 Burden of CAPEX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A platform of IT solutions offered in a single package
-Cloud-like consumption model (OPEX-based)
-Scale up and down according to the scope of application</t>
+          <t>Platform of IT solutions delivered in bulk
+Cloud-like consumption model (OPEX based)
+Can scale up or down depending on scope of application</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Number of users
-total contract amount
-Uptime for service</t>
+Total contract value
+Uptime of service</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Enable simple and flexible IT consumption and management</t>
+          <t>Enables simple and flexible IT consumption and management</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dell EMC's existing product and customer base
+          <t>Existing Dell EMC product and customer base
 Integrated hardware and software management</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dell EMC's existing business channels
+          <t>Existing Dell EMC business channels
 Website</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>smaller companies
-Enterprise Organization</t>
+          <t>Small and Medium Businesses
+Enterprise organizations</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Platform development and maintenance
-Hardware and software costs
-Marketing and Promotion</t>
+          <t>Platform Development and Maintenance
+Hardware and Software Costs
+Marketing and promotion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Subscription Fees
-Service and Support Fees</t>
+          <t>Subscription fees
+Service and support fees</t>
         </is>
       </c>
     </row>
@@ -844,13 +844,13 @@
         <is>
           <t>Traditional hosting services are difficult to set up and manage
 On-premise infrastructure is difficult to scale
-No way to deploy own applications quickly</t>
+No way to deploy your own applications quickly</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Serving as a cloud-based platform
-Automatic scaling and Infrastructure as Code (IaC)
+          <t>Served as a cloud-based platform
+Enables auto-scaling and Infrastructure as Code (IaC)
 Enables easy application deployment and management</t>
         </is>
       </c>
@@ -863,47 +863,47 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cloud services from deployment to scaling with ease</t>
+          <t>Cloud services for easy deployment and scaling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Strong Red Hat brand and existing customer base
-Extensive community support due to its open source nature</t>
+Extensive community support due to its Open source nature</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Website
 Red Hat's existing business channels
-open source community</t>
+Open source community</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>developer
-smaller companies
-Enterprise Organization</t>
+          <t>Developers
+Small and Medium Enterprises
+Enterprise Organizations</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Platform development and maintenance
-Maintain cloud infrastructure
+          <t>Platform Development and Maintenance
+Maintaining Cloud Infrastructure
 Marketing and Promotion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Subscription Fees
-Support and Consulting</t>
+Support and consulting</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kubernetes was invented and made into a business under the assumption that Kubernetes did not exist.</t>
+          <t>Conceive Kubernetes and turn it into a business under the assumption that Kubernetes does not exist</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
@@ -914,15 +914,15 @@
           <t>Difficult to manage microservices
 Ensure system scalability and reliability
 Complex infrastructure state management
-Automated deployment and rolling updates</t>
+Automate deployment and rolling updates</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Provide orchestration tools like Kubernetes
-Load Balancing and Service Discovery
-Infrastructure-as-Code (IaC) to manage status
-Automatic repair by reconsiliation mechanism
+Load balancing and service discovery
+Manage state with Infrastructure as Code (IaC)
+Automatic repair with reconsiliation mechanism
 Automated rollout and rollback</t>
         </is>
       </c>
@@ -930,26 +930,26 @@
         <is>
           <t>Number of active users
 Number of deployed applications
-earnings</t>
+Revenue</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Provides efficient microservice management
-Simplify management by coding infrastructure
-Automatic repair and reliability assurance through reconsiliation</t>
+Coding of infrastructure to simplify management
+Reconciliation to ensure automatic repair and reliability</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Initial Advantage for a time when Kubernetes does not exist
+          <t>Initial advantage for a time when Kubernetes does not exist
 Deep cloud-native technology knowledge and experience</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Website
-cloud marketplace
+Cloud Marketplace
 Partnerships (cloud providers, development tools, etc.)</t>
         </is>
       </c>
@@ -957,27 +957,27 @@
         <is>
           <t>Companies using microservices
 Developers looking for scalability and reliability
-Companies requiring advanced application deployment</t>
+Enterprises requiring advanced application deployment</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Development and Maintenance
-Customer Support
-Marketing and Promotion</t>
+          <t>Development and maintenance
+Customer support
+Marketing and promotion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Software license fee based on system size
-Consulting and Customization Service Fees</t>
+          <t>Software license fees based on system size
+Consulting and customization service fees</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SRE was conceived and made into a business based on the assumption that the concept of SRE did not exist.</t>
+          <t>SRE is conceived and made into a business based on the assumption that the concept of SRE does not exist</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -993,15 +993,15 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>New engineering roles to integrate operations and development
-System operation applying software engineering principles
+System operations applying software engineering principles
 Increased release speed through automation and Infrastructure as Code (IaC)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>User system downtime
+          <t>System downtime for users
 Release speed of new features
-System Reliability</t>
+System reliability</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1011,35 +1011,35 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pioneer of new operational methods
-Ability to increase both system reliability and the speed at which new features are released</t>
+          <t>Pioneer new operational methodologies
+Ability to improve both system reliability and release speed of new features</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Internet (websites, blogs, social media)
-Seminars and Conferences
+Seminars and conferences
 Partnerships (e.g., IT consulting firms)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Companies suffering from system downtime
-Companies that feel that the release of new features is slow</t>
+Companies experiencing slow release of new features</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Engineer Salary
+          <t>Engineer salaries
 Marketing and sales costs
 R&amp;D</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>service contract fee
-Software license fee
-Consulting Fee</t>
+          <t>Service contract fees
+Software license fees
+Consulting fees</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cloud-based centralized bank operating system
+          <t>Cloud-based centralized banking operating system
 Digitization to improve customer service
 Dashboard for real-time monitoring and reporting</t>
         </is>
@@ -1069,8 +1069,8 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>Number of new banks registered on the platform
-Transaction volume by bank
-(degree of) customer satisfaction</t>
+Volume of transactions by banks
+Customer satisfaction</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cloud-based platform developed from the beginning, unlike existing bank legacy systems
+          <t>Platform developed from the beginning as cloud-based, unlike existing bank legacy systems
 Services embedded within the Salesforce ecosystem</t>
         </is>
       </c>
@@ -1092,13 +1092,13 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Banks considering migration from legacy systems
-Banks seeking to improve customer experience</t>
+          <t>Banks looking to migrate from legacy systems
+Banks looking to improve customer experience</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Engineer Salary
+          <t>Engineer salaries
 Cloud infrastructure maintenance costs
 Marketing and sales costs</t>
         </is>
@@ -1106,7 +1106,7 @@
       <c r="K10" t="inlineStr">
         <is>
           <t>Software subscription fees
-Support and Customization Service Fees</t>
+Support and customization service fees</t>
         </is>
       </c>
     </row>
@@ -1121,8 +1121,8 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>High cost of X-ray equipment
-Limited medical diagnosis in inaccessible areas
+          <t>High cost of x-ray equipment
+Limited availability of medical diagnostics in inaccessible areas
 Waiting time for diagnostic results</t>
         </is>
       </c>
@@ -1130,53 +1130,53 @@
         <is>
           <t>Low-cost, compact X-ray equipment (Nanox.ARC)
 Cloud-based diagnostic network (Nanox.Cloud)
-Immediate diagnostic support using AI</t>
+Instant diagnostic support using AI</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Number of Nanox.ARC shipments
 Number of connections to Nanox.Cloud
-Diagnostic processing volume by AI</t>
+AI-based diagnostic throughput</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Provide low-cost, accessible x-ray diagnostic technology</t>
+          <t>Provision of low-cost, accessible x-ray diagnostic technology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Development of innovative low-cost X-ray systems
-Integrated solution combining cloud-based diagnostic platform</t>
+          <t>Development of innovative low-cost x-ray systems
+Integrated solutions combining cloud-based diagnostic platforms</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>Direct sales to medical institutions
 Medical events and conferences
-Online (website, social media)</t>
+Online (websites, social media)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Medical institutions in developing countries
-Local clinics and small hospitals
+Rural clinics and small hospitals
 Large medical institutions and hospitals</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>R&amp;D Expenses
-production cost
+          <t>Research and development costs
+Production costs
 Marketing and sales costs</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nanox.ARC for sale
-Nanox.Cloud service fees
-Fees for AI Diagnostic Support</t>
+          <t>Sales of Nanox.ARC
+Nanox.Cloud service usage fees
+AI diagnostic support usage fees</t>
         </is>
       </c>
     </row>
@@ -1191,14 +1191,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Scaling issues with existing data warehouses
+          <t>Existing data warehouse scaling issues
 Data consistency and security issues
 Slow data processing speed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cloud-native data warehousing
+          <t>Cloud-native data warehouse
 Scalable storage and computing resources on demand
 Centralized data management and fast query processing</t>
         </is>
@@ -1212,26 +1212,26 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Provide a fast and scalable data warehouse in the cloud</t>
+          <t>Fast and scalable data warehouse in the cloud</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Cloud-native design for both data warehouse scaling and query performance
-On-demand scaling and fee structure</t>
+On-demand scaling and pricing structure</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>Website
-cloud marketplace
+Cloud Marketplace
 Direct Sales and Partnerships</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>enterprise
-Tech Startups
+          <t>Large Enterprises
+Tech startups
 Various industries requiring data analysis</t>
         </is>
       </c>
@@ -1244,8 +1244,8 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Billing based on usage volume
-Rate plans for long-term use
+          <t>Usage-based billing
+Pricing plans for long-term use
 Cost of data migration and consulting services</t>
         </is>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Difficult to utilize AI and big data
+          <t>Difficult to leverage AI and big data
 Difficult to integrate with existing enterprise systems
 Lack of scalable AI solutions</t>
         </is>
@@ -1276,32 +1276,32 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>Number of AI applications running on the platform
-data processing volume
+Data processing volume
 Customer satisfaction and repeat business</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AI-enabled business transformation platform</t>
+          <t>Platform enables AI-enabled business transformation</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Provide consistent AI solutions
-High level of integration capability with existing systems</t>
+          <t>Consistent AI solution delivery
+Ability to highly integrate with existing systems</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Website
-direct sales
-partnership</t>
+Direct Sales
+Partnerships</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>enterprise
-Enterprise Software Developer</t>
+          <t>Large Enterprises
+Enterprise Software Developers</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1314,7 +1314,7 @@
       <c r="K13" t="inlineStr">
         <is>
           <t>Platform usage fees
-Consulting fees for providing solutions
+Consulting fees for solution delivery
 Customization and development support costs</t>
         </is>
       </c>
@@ -1330,26 +1330,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Advanced game development skills and resource requirements
+          <t>High skill and resource requirements for game development
 Difficult to port to multiple platforms</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Providing an integrated development environment that simplifies game development
-One-click, multi-platform support</t>
+          <t>Provides an integrated development environment that simplifies game development
+Support for multiple platforms with a single click</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Number of users
 Number of games developed
-Use of time</t>
+Time of use</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Game Development Made Easy for Everyone</t>
+          <t>Game development made easy for everyone</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1366,19 +1366,19 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>game developer
-educational institution</t>
+          <t>Game Developers
+Educational Institutions</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Development and maintenance costs
-marketing cost</t>
+Marketing costs</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Professional version licenses for sale
+          <t>Professional version license sales
 Subscription fees for services
 Revenue from Unity Asset Store</t>
         </is>
@@ -1395,8 +1395,8 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lack of a platform to give shape to one's ideas
-Lack of safe online gaming environment for children</t>
+          <t>Lack of a platform to give shape to their ideas
+Lack of a safe online gaming environment for children</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1409,44 +1409,44 @@
         <is>
           <t>Number of registered users
 Number of games created
-Average utilization time</t>
+Average time spent on the site</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Experience creating your own games and sharing them with others</t>
+          <t>Experience of creating your own games and sharing them with others</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>Unique user-generated content and social bodies
-High brand recognition and safety for children</t>
+High brand awareness and safety for children</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Website
-Mobile Apps</t>
+Mobile apps</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Children and Youth
+          <t>Children and youth
 People who want to learn game development</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Platform development and maintenance
-Moderation and norm reinforcement
-marketing cost</t>
+Moderation and norm enforcement
+Marketing costs</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>Sale of virtual currency "Robux
-Subscription Fees
-Advertising Revenue</t>
+Subscription fees
+Advertising revenues</t>
         </is>
       </c>
     </row>
@@ -1461,21 +1461,21 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Highly oil-dependent vehicle industry
+          <t>Petroleum-dependent vehicle industry
 Negative environmental impact</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Manufacture of high-performance, environmentally friendly electric vehicles
-Battery Technology Innovation</t>
+          <t>High Performance, Environmentally Friendly Electric Vehicle Manufacturing
+Innovation in battery technology</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Number of units sold
+          <t>Sales volume
 Brand recognition
-earnings</t>
+Profitability</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Brand awareness and innovation
+          <t>Brand Awareness and Innovation
 Advanced Battery Technology</t>
         </is>
       </c>
@@ -1503,15 +1503,15 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Manufacturing cost
-R &amp; D
-Operating and administrative expenses</t>
+          <t>Manufacturing Costs
+Research and development
+Sales and administrative costs</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Vehicle Sales
-Services and Accessories</t>
+          <t>Vehicle sales
+Service and accessories</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1526,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>High-cost space exploration
-Non-reusable rocket</t>
+          <t>High Cost Space Exploration
+Non-Reusable Launch Vehicles</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Development of reusable rockets
-Realization of low-cost space travel</t>
+          <t>Development of reusable launch vehicles
+Low-cost space travel</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1545,38 +1545,38 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Allow humans to explore the universe and live on other planets</t>
+          <t>Enable humans to explore space and live on other planets</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Reusable Rocket Technology
+          <t>Reusable Launch Vehicle Technology
 Strong brand and innovation</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Government Contracts
-Commercial Launch Agreement</t>
+          <t>Government contracts
+Commercial Launch Contracts</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>government body (agency)
-satellite company</t>
+          <t>Government agencies
+Satellite companies</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Rocket Development and Manufacturing
-Launch costs
-R &amp; D</t>
+          <t>Rocket development and manufacturing
+Launch Costs
+Research and Development</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>launch contract
-Income from space travel</t>
+          <t>Launch Contracts
+Revenue from space travel</t>
         </is>
       </c>
     </row>

--- a/sample_en.xlsx
+++ b/sample_en.xlsx
@@ -722,7 +722,7 @@
         <is>
           <t>Number of products sold
 Number of new customers
-Number of subscriptions to cloud services</t>
+Number of cloud service subscriptions</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Provision of low-cost, accessible x-ray diagnostic technology</t>
+          <t>Provision of low-cost, accessible X-ray diagnostic technology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">

--- a/sample_en.xlsx
+++ b/sample_en.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Use cases" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projects" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -922,7 +922,7 @@
           <t>Provide orchestration tools like Kubernetes
 Load balancing and service discovery
 Manage state with Infrastructure as Code (IaC)
-Automatic repair with reconsiliation mechanism
+Automated repair with reconsiliation mechanism
 Automated rollout and rollback</t>
         </is>
       </c>
@@ -1137,7 +1137,7 @@
         <is>
           <t>Number of Nanox.ARC shipments
 Number of connections to Nanox.Cloud
-AI-based diagnostic throughput</t>
+Volume of diagnostic processing by AI</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/sample_en.xlsx
+++ b/sample_en.xlsx
@@ -722,7 +722,7 @@
         <is>
           <t>Number of products sold
 Number of new customers
-Number of cloud service subscriptions</t>
+Number of subscriptions to cloud services</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1137,7 +1137,7 @@
         <is>
           <t>Number of Nanox.ARC shipments
 Number of connections to Nanox.Cloud
-Volume of diagnostic processing by AI</t>
+AI-based diagnostic throughput</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Development and maintenance costs
+          <t>Development and Maintenance Costs
 Marketing costs</t>
         </is>
       </c>

--- a/sample_en.xlsx
+++ b/sample_en.xlsx
@@ -922,7 +922,7 @@
           <t>Provide orchestration tools like Kubernetes
 Load balancing and service discovery
 Manage state with Infrastructure as Code (IaC)
-Automated repair with reconsiliation mechanism
+Automatic repair with reconsiliation mechanism
 Automated rollout and rollback</t>
         </is>
       </c>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Provision of low-cost, accessible X-ray diagnostic technology</t>
+          <t>Provision of low-cost, accessible x-ray diagnostic technology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Development and Maintenance Costs
+          <t>Development and maintenance costs
 Marketing costs</t>
         </is>
       </c>
